--- a/Lab2/Lab2BBT_TC.xlsx
+++ b/Lab2/Lab2BBT_TC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mano\Desktop\Colectiv\mair2547\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D2140E-8F9B-4418-A1A6-9FE4711F1C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2001193C-3FC4-42CC-AA43-DDAD81C46ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CADA9D4E-D2C1-445A-B1C7-9610EB3C8B68}"/>
+    <workbookView xWindow="768" yWindow="1032" windowWidth="21600" windowHeight="11328" activeTab="2" xr2:uid="{CADA9D4E-D2C1-445A-B1C7-9610EB3C8B68}"/>
   </bookViews>
   <sheets>
     <sheet name="F01.ECP" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,6 +1221,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1646,7 +1653,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1733,107 +1740,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1844,52 +1756,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1898,12 +1765,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1921,6 +1782,158 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2260,20 +2273,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2301,7 +2314,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2313,7 +2326,7 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -2323,7 +2336,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2335,7 +2348,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -2345,7 +2358,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2357,7 +2370,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -2367,7 +2380,7 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2379,7 +2392,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
@@ -2389,7 +2402,7 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2401,7 +2414,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
@@ -2411,7 +2424,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2423,7 +2436,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>20</v>
@@ -2433,7 +2446,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="52" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2445,7 +2458,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>24</v>
@@ -2455,7 +2468,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2467,7 +2480,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>26</v>
@@ -2477,7 +2490,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="4"/>
@@ -2489,7 +2502,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
@@ -2499,7 +2512,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>29</v>
@@ -2509,7 +2522,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="60" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2521,7 +2534,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="4" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2544,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
         <v>43</v>
@@ -2541,7 +2554,7 @@
       <c r="B29" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2553,7 +2566,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
         <v>46</v>
@@ -2564,7 +2577,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2576,7 +2589,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
         <v>48</v>
@@ -2586,7 +2599,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2598,7 +2611,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12" t="s">
         <v>99</v>
@@ -2619,28 +2632,28 @@
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="43" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
@@ -2662,7 +2675,7 @@
       <c r="J38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="35"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
@@ -3144,6 +3157,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C33:C34"/>
@@ -3151,18 +3176,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3194,44 +3207,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="F5" s="54" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="F5" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -3243,45 +3256,45 @@
       <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="43" t="s">
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="43">
+      <c r="B7" s="48">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="50" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3303,15 +3316,15 @@
       <c r="P7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="47"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="30">
         <v>1</v>
       </c>
       <c r="G8" s="19">
@@ -3349,8 +3362,8 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="12" t="s">
         <v>94</v>
       </c>
@@ -3392,8 +3405,8 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="12" t="s">
         <v>95</v>
       </c>
@@ -3435,12 +3448,12 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="30">
         <v>4</v>
       </c>
       <c r="G11" s="19">
@@ -3478,8 +3491,8 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="12" t="s">
         <v>97</v>
       </c>
@@ -3521,10 +3534,10 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="45">
+      <c r="B13" s="69">
         <v>2</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -3568,8 +3581,8 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="12" t="s">
         <v>102</v>
       </c>
@@ -3611,8 +3624,8 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="11" t="s">
         <v>101</v>
       </c>
@@ -3654,8 +3667,8 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="12" t="s">
         <v>103</v>
       </c>
@@ -3697,8 +3710,8 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="11" t="s">
         <v>104</v>
       </c>
@@ -3740,8 +3753,8 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="11" t="s">
         <v>105</v>
       </c>
@@ -3783,10 +3796,10 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="45">
+      <c r="B19" s="69">
         <v>3</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="60" t="s">
         <v>106</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -3830,8 +3843,8 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12" t="s">
         <v>152</v>
       </c>
@@ -3873,8 +3886,8 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="12" t="s">
         <v>153</v>
       </c>
@@ -3916,8 +3929,8 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12" t="s">
         <v>154</v>
       </c>
@@ -3959,8 +3972,8 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="12" t="s">
         <v>155</v>
       </c>
@@ -4002,8 +4015,8 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="12" t="s">
         <v>156</v>
       </c>
@@ -4045,10 +4058,10 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="43">
+      <c r="B25" s="48">
         <v>4</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -4092,8 +4105,8 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="12" t="s">
         <v>118</v>
       </c>
@@ -4135,8 +4148,8 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="12" t="s">
         <v>119</v>
       </c>
@@ -4178,8 +4191,8 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="34"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="12" t="s">
         <v>120</v>
       </c>
@@ -4221,8 +4234,8 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="12" t="s">
         <v>121</v>
       </c>
@@ -4264,8 +4277,8 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="12" t="s">
         <v>122</v>
       </c>
@@ -4307,10 +4320,10 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="43">
-        <v>5</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="48">
+        <v>5</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -4354,8 +4367,8 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="12" t="s">
         <v>124</v>
       </c>
@@ -4397,12 +4410,12 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="30">
         <v>26</v>
       </c>
       <c r="G33" s="19">
@@ -4440,8 +4453,8 @@
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="12" t="s">
         <v>126</v>
       </c>
@@ -4483,12 +4496,12 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="30">
         <v>28</v>
       </c>
       <c r="G35" s="19">
@@ -4526,8 +4539,8 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="12" t="s">
         <v>128</v>
       </c>
@@ -4608,18 +4621,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="C13:C18"/>
@@ -4628,6 +4629,18 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4638,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F515CAF8-5BE5-47DE-8C30-CBFC521DEA4A}">
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4654,62 +4667,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="61"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
@@ -4739,13 +4752,13 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="63">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="31" t="s">
         <v>167</v>
       </c>
       <c r="E9" s="25"/>
@@ -4773,19 +4786,19 @@
       <c r="M9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="N9" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="63">
+      <c r="B10" s="31">
         <v>2</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -4812,19 +4825,19 @@
       <c r="M10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="63">
+      <c r="B11" s="31">
         <v>3</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="31" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="16" t="s">
@@ -4851,19 +4864,19 @@
       <c r="M11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="63">
+      <c r="B12" s="31">
         <v>4</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="31" t="s">
         <v>172</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -4890,30 +4903,30 @@
       <c r="M12" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="63">
-        <v>5</v>
-      </c>
-      <c r="C13" s="65"/>
+      <c r="B13" s="31">
+        <v>5</v>
+      </c>
+      <c r="C13" s="92"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="31" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="16">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H13" s="16">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I13" s="16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J13" s="16">
         <v>200</v>
@@ -4927,417 +4940,411 @@
       <c r="M13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="34" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="63">
+      <c r="B14" s="31">
         <v>6</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>137</v>
       </c>
+      <c r="G14" s="16">
+        <v>100</v>
+      </c>
       <c r="H14" s="16">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>50</v>
+      </c>
+      <c r="J14" s="16">
+        <v>50</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="16">
+        <v>29381</v>
+      </c>
+      <c r="M14" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
+        <v>7</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="29">
         <v>100</v>
       </c>
-      <c r="I14" s="16">
-        <v>5</v>
-      </c>
-      <c r="J14" s="16">
-        <v>50</v>
-      </c>
-      <c r="K14" s="16">
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>50</v>
+      </c>
+      <c r="J15" s="16">
+        <v>50</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="16">
+        <v>29381</v>
+      </c>
+      <c r="M15" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
+        <v>8</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="29">
+        <v>100</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="16">
+        <v>50</v>
+      </c>
+      <c r="J16" s="16">
+        <v>50</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="16">
+        <v>29381</v>
+      </c>
+      <c r="M16" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>9</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="29">
+        <v>50</v>
+      </c>
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
+      <c r="I17" s="16">
+        <v>50</v>
+      </c>
+      <c r="J17" s="16">
+        <v>50</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="16">
+        <v>19928</v>
+      </c>
+      <c r="M17" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>10</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="29">
+        <v>51</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16">
+        <v>50</v>
+      </c>
+      <c r="J18" s="16">
+        <v>50</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="16">
+        <v>19928</v>
+      </c>
+      <c r="M18" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>11</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="29">
+        <v>199</v>
+      </c>
+      <c r="H19" s="16">
+        <v>5</v>
+      </c>
+      <c r="I19" s="16">
+        <v>50</v>
+      </c>
+      <c r="J19" s="16">
+        <v>50</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="16">
+        <v>19928</v>
+      </c>
+      <c r="M19" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>12</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="29">
         <v>200</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="H20" s="16">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16">
+        <v>50</v>
+      </c>
+      <c r="J20" s="16">
+        <v>50</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="16">
-        <v>29381</v>
-      </c>
-      <c r="N14" s="69" t="s">
+      <c r="L20" s="16">
+        <v>19928</v>
+      </c>
+      <c r="M20" s="101" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="63">
-        <v>7</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="28">
-        <v>100</v>
-      </c>
-      <c r="I15" s="16">
-        <v>5</v>
-      </c>
-      <c r="J15" s="16">
-        <v>50</v>
-      </c>
-      <c r="K15" s="16">
-        <v>200</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="16">
-        <v>29381</v>
-      </c>
-      <c r="N15" s="69" t="s">
+      <c r="N20" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="63">
-        <v>8</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="28">
-        <v>100</v>
-      </c>
-      <c r="I16" s="16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="16">
-        <v>50</v>
-      </c>
-      <c r="K16" s="16">
-        <v>200</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="16">
-        <v>29381</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="63">
-        <v>9</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="28">
-        <v>50</v>
-      </c>
-      <c r="I17" s="16">
-        <v>5</v>
-      </c>
-      <c r="J17" s="16">
-        <v>50</v>
-      </c>
-      <c r="K17" s="16">
-        <v>200</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="16">
-        <v>19928</v>
-      </c>
-      <c r="N17" s="69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="63">
-        <v>10</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="28">
-        <v>51</v>
-      </c>
-      <c r="I18" s="16">
-        <v>5</v>
-      </c>
-      <c r="J18" s="16">
-        <v>50</v>
-      </c>
-      <c r="K18" s="16">
-        <v>200</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="16">
-        <v>19928</v>
-      </c>
-      <c r="N18" s="69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="63">
-        <v>11</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="28">
-        <v>199</v>
-      </c>
-      <c r="I19" s="16">
-        <v>5</v>
-      </c>
-      <c r="J19" s="16">
-        <v>50</v>
-      </c>
-      <c r="K19" s="16">
-        <v>200</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="16">
-        <v>19928</v>
-      </c>
-      <c r="N19" s="69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="63">
-        <v>12</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="28">
-        <v>200</v>
-      </c>
-      <c r="I20" s="16">
-        <v>5</v>
-      </c>
-      <c r="J20" s="16">
-        <v>50</v>
-      </c>
-      <c r="K20" s="16">
-        <v>200</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="16">
-        <v>19928</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75" t="s">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="72" t="s">
+      <c r="I24" s="97"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="71" t="s">
+      <c r="I25" s="86"/>
+      <c r="J25" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="L25" s="79" t="s">
+      <c r="L25" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="M25" s="83" t="s">
+      <c r="M25" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="79" t="s">
+      <c r="P25" s="81" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="37">
         <f>SUM(D27:E27)</f>
         <v>12</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="44">
         <v>11</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="46">
         <v>1</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="82">
         <v>1</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="99">
+      <c r="I27" s="83"/>
+      <c r="J27" s="47">
         <v>1</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="44">
         <v>1</v>
       </c>
-      <c r="L27" s="97">
+      <c r="L27" s="45">
         <v>0</v>
       </c>
-      <c r="M27" s="94" t="s">
+      <c r="M27" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="N27" s="93">
+      <c r="N27" s="41">
         <f>SUM(O27:P27)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="C9:C20"/>
@@ -5348,12 +5355,18 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L25:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
